--- a/static/uploads/Book1.xlsx
+++ b/static/uploads/Book1.xlsx
@@ -14,24 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>Work Center</t>
   </si>
   <si>
-    <t>REEDEDLINE</t>
+    <t>PACKING</t>
   </si>
   <si>
     <t>From</t>
   </si>
   <si>
-    <t>2024-05-08</t>
+    <t>2024-05-13</t>
   </si>
   <si>
     <t>To</t>
   </si>
   <si>
-    <t>2024-05-21</t>
+    <t>2024-05-19</t>
   </si>
   <si>
     <t>Ngày giờ nhập</t>
@@ -41,6 +41,414 @@
   </si>
   <si>
     <t>Manhr</t>
+  </si>
+  <si>
+    <t>2024-05-20 02:41:06</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>792</t>
+  </si>
+  <si>
+    <t>2024-05-19 12:48:59</t>
+  </si>
+  <si>
+    <t>6081</t>
+  </si>
+  <si>
+    <t>2024-05-19 09:01:51</t>
+  </si>
+  <si>
+    <t>15911</t>
+  </si>
+  <si>
+    <t>2024-05-19 08:52:20</t>
+  </si>
+  <si>
+    <t>52565</t>
+  </si>
+  <si>
+    <t>2024-05-19 08:49:43</t>
+  </si>
+  <si>
+    <t>24680</t>
+  </si>
+  <si>
+    <t>2024-05-19 06:30:42</t>
+  </si>
+  <si>
+    <t>10901</t>
+  </si>
+  <si>
+    <t>2024-05-19 02:26:35</t>
+  </si>
+  <si>
+    <t>5820</t>
+  </si>
+  <si>
+    <t>2024-05-18 08:59:54</t>
+  </si>
+  <si>
+    <t>1460</t>
+  </si>
+  <si>
+    <t>2024-05-18 08:50:56</t>
+  </si>
+  <si>
+    <t>13195</t>
+  </si>
+  <si>
+    <t>2024-05-18 08:37:34</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>2024-05-18 08:20:14</t>
+  </si>
+  <si>
+    <t>928</t>
+  </si>
+  <si>
+    <t>2024-05-18 07:44:20</t>
+  </si>
+  <si>
+    <t>9267</t>
+  </si>
+  <si>
+    <t>2024-05-18 07:24:46</t>
+  </si>
+  <si>
+    <t>21273</t>
+  </si>
+  <si>
+    <t>2024-05-18 07:00:39</t>
+  </si>
+  <si>
+    <t>6670</t>
+  </si>
+  <si>
+    <t>2024-05-18 06:59:58</t>
+  </si>
+  <si>
+    <t>16114</t>
+  </si>
+  <si>
+    <t>2024-05-18 03:50:33</t>
+  </si>
+  <si>
+    <t>4441</t>
+  </si>
+  <si>
+    <t>2024-05-18 03:45:10</t>
+  </si>
+  <si>
+    <t>13945</t>
+  </si>
+  <si>
+    <t>2024-05-18 00:25:07</t>
+  </si>
+  <si>
+    <t>737</t>
+  </si>
+  <si>
+    <t>2024-05-17 14:38:36</t>
+  </si>
+  <si>
+    <t>1024</t>
+  </si>
+  <si>
+    <t>2024-05-17 13:36:02</t>
+  </si>
+  <si>
+    <t>7993</t>
+  </si>
+  <si>
+    <t>2024-05-17 13:34:53</t>
+  </si>
+  <si>
+    <t>10764</t>
+  </si>
+  <si>
+    <t>2024-05-17 13:34:44</t>
+  </si>
+  <si>
+    <t>12509</t>
+  </si>
+  <si>
+    <t>2024-05-17 10:28:07</t>
+  </si>
+  <si>
+    <t>6983</t>
+  </si>
+  <si>
+    <t>2024-05-17 10:26:44</t>
+  </si>
+  <si>
+    <t>8853</t>
+  </si>
+  <si>
+    <t>2024-05-17 07:50:11</t>
+  </si>
+  <si>
+    <t>11932</t>
+  </si>
+  <si>
+    <t>2024-05-17 07:18:58</t>
+  </si>
+  <si>
+    <t>6599</t>
+  </si>
+  <si>
+    <t>2024-05-17 06:30:29</t>
+  </si>
+  <si>
+    <t>10370</t>
+  </si>
+  <si>
+    <t>2024-05-17 05:49:30</t>
+  </si>
+  <si>
+    <t>9450</t>
+  </si>
+  <si>
+    <t>2024-05-17 05:05:23</t>
+  </si>
+  <si>
+    <t>17413</t>
+  </si>
+  <si>
+    <t>2024-05-16 13:14:23</t>
+  </si>
+  <si>
+    <t>14775</t>
+  </si>
+  <si>
+    <t>2024-05-16 11:57:38</t>
+  </si>
+  <si>
+    <t>8675</t>
+  </si>
+  <si>
+    <t>2024-05-16 11:35:32</t>
+  </si>
+  <si>
+    <t>20424</t>
+  </si>
+  <si>
+    <t>2024-05-16 11:33:40</t>
+  </si>
+  <si>
+    <t>21647</t>
+  </si>
+  <si>
+    <t>2024-05-16 10:44:07</t>
+  </si>
+  <si>
+    <t>1148</t>
+  </si>
+  <si>
+    <t>2024-05-16 08:51:18</t>
+  </si>
+  <si>
+    <t>20493</t>
+  </si>
+  <si>
+    <t>2024-05-16 08:07:46</t>
+  </si>
+  <si>
+    <t>8502</t>
+  </si>
+  <si>
+    <t>2024-05-16 05:53:10</t>
+  </si>
+  <si>
+    <t>13687</t>
+  </si>
+  <si>
+    <t>2024-05-16 05:53:00</t>
+  </si>
+  <si>
+    <t>14910</t>
+  </si>
+  <si>
+    <t>2024-05-16 05:21:10</t>
+  </si>
+  <si>
+    <t>30991</t>
+  </si>
+  <si>
+    <t>2024-05-16 04:04:19</t>
+  </si>
+  <si>
+    <t>1393</t>
+  </si>
+  <si>
+    <t>2024-05-16 00:19:50</t>
+  </si>
+  <si>
+    <t>8876</t>
+  </si>
+  <si>
+    <t>2024-05-15 13:39:36</t>
+  </si>
+  <si>
+    <t>14262</t>
+  </si>
+  <si>
+    <t>2024-05-15 13:37:34</t>
+  </si>
+  <si>
+    <t>5147</t>
+  </si>
+  <si>
+    <t>2024-05-15 13:35:30</t>
+  </si>
+  <si>
+    <t>13944</t>
+  </si>
+  <si>
+    <t>2024-05-15 11:41:18</t>
+  </si>
+  <si>
+    <t>10991</t>
+  </si>
+  <si>
+    <t>2024-05-15 11:38:49</t>
+  </si>
+  <si>
+    <t>9115</t>
+  </si>
+  <si>
+    <t>2024-05-15 10:44:45</t>
+  </si>
+  <si>
+    <t>13520</t>
+  </si>
+  <si>
+    <t>2024-05-15 10:14:20</t>
+  </si>
+  <si>
+    <t>3991</t>
+  </si>
+  <si>
+    <t>2024-05-15 08:59:45</t>
+  </si>
+  <si>
+    <t>12418</t>
+  </si>
+  <si>
+    <t>2024-05-15 08:56:05</t>
+  </si>
+  <si>
+    <t>4327</t>
+  </si>
+  <si>
+    <t>2024-05-15 07:41:59</t>
+  </si>
+  <si>
+    <t>19284</t>
+  </si>
+  <si>
+    <t>2024-05-15 07:19:25</t>
+  </si>
+  <si>
+    <t>9076</t>
+  </si>
+  <si>
+    <t>2024-05-15 04:45:45</t>
+  </si>
+  <si>
+    <t>11896</t>
+  </si>
+  <si>
+    <t>2024-05-15 03:37:10</t>
+  </si>
+  <si>
+    <t>1251</t>
+  </si>
+  <si>
+    <t>2024-05-15 02:26:30</t>
+  </si>
+  <si>
+    <t>2343</t>
+  </si>
+  <si>
+    <t>2024-05-15 02:26:05</t>
+  </si>
+  <si>
+    <t>8877</t>
+  </si>
+  <si>
+    <t>2024-05-15 07:47:54</t>
+  </si>
+  <si>
+    <t>43312</t>
+  </si>
+  <si>
+    <t>2024-05-15 06:02:19</t>
+  </si>
+  <si>
+    <t>1372</t>
+  </si>
+  <si>
+    <t>2024-05-15 00:57:52</t>
+  </si>
+  <si>
+    <t>78514</t>
+  </si>
+  <si>
+    <t>2024-05-15 00:45:54</t>
+  </si>
+  <si>
+    <t>8142</t>
+  </si>
+  <si>
+    <t>2024-05-14 06:54:27</t>
+  </si>
+  <si>
+    <t>6698</t>
+  </si>
+  <si>
+    <t>2024-05-14 00:32:35</t>
+  </si>
+  <si>
+    <t>24199</t>
+  </si>
+  <si>
+    <t>2024-05-14 03:18:21</t>
+  </si>
+  <si>
+    <t>1431</t>
+  </si>
+  <si>
+    <t>2024-05-14 00:33:37</t>
+  </si>
+  <si>
+    <t>75301</t>
+  </si>
+  <si>
+    <t>2024-05-14 00:32:59</t>
+  </si>
+  <si>
+    <t>2024-05-14 00:30:58</t>
+  </si>
+  <si>
+    <t>31275</t>
+  </si>
+  <si>
+    <t>2024-05-13 08:35:51</t>
+  </si>
+  <si>
+    <t>7980</t>
+  </si>
+  <si>
+    <t>2024-05-13 06:06:50</t>
+  </si>
+  <si>
+    <t>10139</t>
   </si>
 </sst>
 </file>
@@ -358,9 +766,15 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -375,6 +789,765 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>134</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>141</v>
+      </c>
+      <c r="B69" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>143</v>
+      </c>
+      <c r="B70" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>143</v>
+      </c>
+      <c r="B71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/static/uploads/Book1.xlsx
+++ b/static/uploads/Book1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Work Center</t>
   </si>
@@ -25,12 +25,15 @@
     <t>From</t>
   </si>
   <si>
-    <t>2024-05-24</t>
+    <t>2024-05-22</t>
   </si>
   <si>
     <t>To</t>
   </si>
   <si>
+    <t>2024-05-23</t>
+  </si>
+  <si>
     <t>Ngày giờ nhập</t>
   </si>
   <si>
@@ -43,10 +46,13 @@
     <t>Xưởng</t>
   </si>
   <si>
-    <t>2024-05-24 22:52:53</t>
-  </si>
-  <si>
-    <t>53138</t>
+    <t>Loại Hàng</t>
+  </si>
+  <si>
+    <t>2024-05-23 15:13:49</t>
+  </si>
+  <si>
+    <t>38818</t>
   </si>
   <si>
     <t>0</t>
@@ -55,88 +61,154 @@
     <t>2</t>
   </si>
   <si>
-    <t>2024-05-24 14:38:53</t>
-  </si>
-  <si>
-    <t>15144</t>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>2024-05-23 15:04:14</t>
+  </si>
+  <si>
+    <t>13355</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>2024-05-24 14:33:08</t>
-  </si>
-  <si>
-    <t>12369</t>
-  </si>
-  <si>
-    <t>2024-05-24 09:45:11</t>
-  </si>
-  <si>
-    <t>8911</t>
-  </si>
-  <si>
-    <t>2024-05-24 09:45:00</t>
-  </si>
-  <si>
-    <t>4762</t>
-  </si>
-  <si>
-    <t>2024-05-24 09:43:11</t>
-  </si>
-  <si>
-    <t>4139</t>
+    <t>2024-05-23 15:03:03</t>
+  </si>
+  <si>
+    <t>5401</t>
+  </si>
+  <si>
+    <t>BRAND</t>
+  </si>
+  <si>
+    <t>2024-05-23 10:22:48</t>
+  </si>
+  <si>
+    <t>17826</t>
+  </si>
+  <si>
+    <t>2024-05-23 10:04:07</t>
+  </si>
+  <si>
+    <t>11920</t>
+  </si>
+  <si>
+    <t>2024-05-23 10:03:17</t>
+  </si>
+  <si>
+    <t>29883</t>
+  </si>
+  <si>
+    <t>2024-05-23 09:33:22</t>
+  </si>
+  <si>
+    <t>4045</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2024-05-24 08:14:03</t>
-  </si>
-  <si>
-    <t>18082</t>
-  </si>
-  <si>
-    <t>2024-05-24 07:33:33</t>
-  </si>
-  <si>
-    <t>7438</t>
-  </si>
-  <si>
-    <t>2024-05-24 07:33:21</t>
-  </si>
-  <si>
-    <t>10507</t>
-  </si>
-  <si>
-    <t>2024-05-24 06:07:54</t>
-  </si>
-  <si>
-    <t>5088</t>
-  </si>
-  <si>
-    <t>2024-05-24 06:06:55</t>
-  </si>
-  <si>
-    <t>10923</t>
-  </si>
-  <si>
-    <t>2024-05-24 05:03:00</t>
-  </si>
-  <si>
-    <t>9798</t>
-  </si>
-  <si>
-    <t>2024-05-24 02:34:54</t>
-  </si>
-  <si>
-    <t>8982</t>
-  </si>
-  <si>
-    <t>2024-05-24 02:24:26</t>
-  </si>
-  <si>
-    <t>7984</t>
+    <t>2024-05-23 08:03:50</t>
+  </si>
+  <si>
+    <t>10521</t>
+  </si>
+  <si>
+    <t>2024-05-23 04:41:32</t>
+  </si>
+  <si>
+    <t>10598</t>
+  </si>
+  <si>
+    <t>2024-05-23 03:22:04</t>
+  </si>
+  <si>
+    <t>12237</t>
+  </si>
+  <si>
+    <t>2024-05-23 03:16:30</t>
+  </si>
+  <si>
+    <t>5266</t>
+  </si>
+  <si>
+    <t>2024-05-23 03:16:20</t>
+  </si>
+  <si>
+    <t>1848</t>
+  </si>
+  <si>
+    <t>2024-05-22 16:45:56</t>
+  </si>
+  <si>
+    <t>3973</t>
+  </si>
+  <si>
+    <t>2024-05-22 15:29:05</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>2024-05-22 15:19:00</t>
+  </si>
+  <si>
+    <t>18000</t>
+  </si>
+  <si>
+    <t>2024-05-22 14:56:59</t>
+  </si>
+  <si>
+    <t>5448</t>
+  </si>
+  <si>
+    <t>2024-05-22 10:08:04</t>
+  </si>
+  <si>
+    <t>24972</t>
+  </si>
+  <si>
+    <t>2024-05-22 09:44:04</t>
+  </si>
+  <si>
+    <t>4202</t>
+  </si>
+  <si>
+    <t>2024-05-22 07:57:14</t>
+  </si>
+  <si>
+    <t>18163</t>
+  </si>
+  <si>
+    <t>2024-05-22 07:51:49</t>
+  </si>
+  <si>
+    <t>11397</t>
+  </si>
+  <si>
+    <t>2024-05-22 05:33:29</t>
+  </si>
+  <si>
+    <t>4896</t>
+  </si>
+  <si>
+    <t>2024-05-22 05:20:02</t>
+  </si>
+  <si>
+    <t>13685</t>
+  </si>
+  <si>
+    <t>2024-05-22 02:36:57</t>
+  </si>
+  <si>
+    <t>11180</t>
+  </si>
+  <si>
+    <t>2024-05-22 02:34:10</t>
+  </si>
+  <si>
+    <t>9675</t>
   </si>
 </sst>
 </file>
@@ -463,216 +535,431 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
         <v>15</v>
       </c>
     </row>

--- a/static/uploads/Book1.xlsx
+++ b/static/uploads/Book1.xlsx
@@ -14,30 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Work Center</t>
   </si>
   <si>
-    <t>ASSEMBLY</t>
+    <t>PACKING</t>
   </si>
   <si>
     <t>From</t>
   </si>
   <si>
-    <t>2024-05-22</t>
+    <t>2024-06-01</t>
   </si>
   <si>
     <t>To</t>
   </si>
   <si>
-    <t>2024-05-23</t>
-  </si>
-  <si>
     <t>Ngày giờ nhập</t>
   </si>
   <si>
-    <t>Số Lượng</t>
+    <t>Sản Lượng</t>
   </si>
   <si>
     <t>Manhr</t>
@@ -49,10 +46,10 @@
     <t>Loại Hàng</t>
   </si>
   <si>
-    <t>2024-05-23 15:13:49</t>
-  </si>
-  <si>
-    <t>38818</t>
+    <t>Số lượng (pcs)</t>
+  </si>
+  <si>
+    <t>2024-06-03 01:01:15</t>
   </si>
   <si>
     <t>0</t>
@@ -64,151 +61,103 @@
     <t>RH</t>
   </si>
   <si>
-    <t>2024-05-23 15:04:14</t>
-  </si>
-  <si>
-    <t>13355</t>
+    <t>88</t>
+  </si>
+  <si>
+    <t>2024-06-03 01:00:47</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>2024-05-23 15:03:03</t>
-  </si>
-  <si>
-    <t>5401</t>
+    <t>93</t>
+  </si>
+  <si>
+    <t>2024-06-03 00:57:27</t>
   </si>
   <si>
     <t>BRAND</t>
   </si>
   <si>
-    <t>2024-05-23 10:22:48</t>
-  </si>
-  <si>
-    <t>17826</t>
-  </si>
-  <si>
-    <t>2024-05-23 10:04:07</t>
-  </si>
-  <si>
-    <t>11920</t>
-  </si>
-  <si>
-    <t>2024-05-23 10:03:17</t>
-  </si>
-  <si>
-    <t>29883</t>
-  </si>
-  <si>
-    <t>2024-05-23 09:33:22</t>
-  </si>
-  <si>
-    <t>4045</t>
+    <t>57</t>
+  </si>
+  <si>
+    <t>2024-06-02 06:34:28</t>
+  </si>
+  <si>
+    <t>9421</t>
+  </si>
+  <si>
+    <t>2024-06-02 06:20:44</t>
+  </si>
+  <si>
+    <t>1274</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2024-05-23 08:03:50</t>
-  </si>
-  <si>
-    <t>10521</t>
-  </si>
-  <si>
-    <t>2024-05-23 04:41:32</t>
-  </si>
-  <si>
-    <t>10598</t>
-  </si>
-  <si>
-    <t>2024-05-23 03:22:04</t>
-  </si>
-  <si>
-    <t>12237</t>
-  </si>
-  <si>
-    <t>2024-05-23 03:16:30</t>
-  </si>
-  <si>
-    <t>5266</t>
-  </si>
-  <si>
-    <t>2024-05-23 03:16:20</t>
-  </si>
-  <si>
-    <t>1848</t>
-  </si>
-  <si>
-    <t>2024-05-22 16:45:56</t>
-  </si>
-  <si>
-    <t>3973</t>
-  </si>
-  <si>
-    <t>2024-05-22 15:29:05</t>
-  </si>
-  <si>
-    <t>20000</t>
-  </si>
-  <si>
-    <t>2024-05-22 15:19:00</t>
-  </si>
-  <si>
-    <t>18000</t>
-  </si>
-  <si>
-    <t>2024-05-22 14:56:59</t>
-  </si>
-  <si>
-    <t>5448</t>
-  </si>
-  <si>
-    <t>2024-05-22 10:08:04</t>
-  </si>
-  <si>
-    <t>24972</t>
-  </si>
-  <si>
-    <t>2024-05-22 09:44:04</t>
-  </si>
-  <si>
-    <t>4202</t>
-  </si>
-  <si>
-    <t>2024-05-22 07:57:14</t>
-  </si>
-  <si>
-    <t>18163</t>
-  </si>
-  <si>
-    <t>2024-05-22 07:51:49</t>
-  </si>
-  <si>
-    <t>11397</t>
-  </si>
-  <si>
-    <t>2024-05-22 05:33:29</t>
-  </si>
-  <si>
-    <t>4896</t>
-  </si>
-  <si>
-    <t>2024-05-22 05:20:02</t>
-  </si>
-  <si>
-    <t>13685</t>
-  </si>
-  <si>
-    <t>2024-05-22 02:36:57</t>
-  </si>
-  <si>
-    <t>11180</t>
-  </si>
-  <si>
-    <t>2024-05-22 02:34:10</t>
-  </si>
-  <si>
-    <t>9675</t>
+    <t>2024-06-01 12:27:48</t>
+  </si>
+  <si>
+    <t>6786</t>
+  </si>
+  <si>
+    <t>2024-06-01 12:27:26</t>
+  </si>
+  <si>
+    <t>8985</t>
+  </si>
+  <si>
+    <t>2024-06-01 11:54:44</t>
+  </si>
+  <si>
+    <t>6252</t>
+  </si>
+  <si>
+    <t>2024-06-01 11:29:26</t>
+  </si>
+  <si>
+    <t>7699</t>
+  </si>
+  <si>
+    <t>2024-06-01 09:42:46</t>
+  </si>
+  <si>
+    <t>11118</t>
+  </si>
+  <si>
+    <t>2024-06-01 08:42:13</t>
+  </si>
+  <si>
+    <t>6037</t>
+  </si>
+  <si>
+    <t>2024-06-01 07:42:35</t>
+  </si>
+  <si>
+    <t>10568</t>
+  </si>
+  <si>
+    <t>2024-06-01 07:36:14</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2024-06-01 07:35:42</t>
+  </si>
+  <si>
+    <t>8230</t>
+  </si>
+  <si>
+    <t>2024-06-01 07:35:27</t>
+  </si>
+  <si>
+    <t>2024-06-01 04:28:10</t>
+  </si>
+  <si>
+    <t>15796</t>
   </si>
 </sst>
 </file>
@@ -535,23 +484,26 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -563,12 +515,15 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -577,16 +532,19 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -594,15 +552,18 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -614,13 +575,16 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -628,50 +592,59 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -682,13 +655,16 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -699,13 +675,16 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -716,13 +695,16 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -733,13 +715,16 @@
         <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -750,13 +735,16 @@
         <v>40</v>
       </c>
       <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -764,16 +752,19 @@
         <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +775,16 @@
         <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -798,169 +792,39 @@
         <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
         <v>47</v>
       </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
       <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
         <v>13</v>
       </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
       <c r="E18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/static/uploads/Book1.xlsx
+++ b/static/uploads/Book1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="427">
   <si>
     <t>Work Center</t>
   </si>
@@ -25,12 +25,15 @@
     <t>From</t>
   </si>
   <si>
-    <t>2024-06-01</t>
+    <t>2024-07-01</t>
   </si>
   <si>
     <t>To</t>
   </si>
   <si>
+    <t>2024-07-24</t>
+  </si>
+  <si>
     <t>Ngày giờ nhập</t>
   </si>
   <si>
@@ -49,7 +52,10 @@
     <t>Số lượng (pcs)</t>
   </si>
   <si>
-    <t>2024-06-03 01:01:15</t>
+    <t>2024-07-24 16:03:01</t>
+  </si>
+  <si>
+    <t>27278</t>
   </si>
   <si>
     <t>0</t>
@@ -61,103 +67,1234 @@
     <t>RH</t>
   </si>
   <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>2024-06-03 01:00:47</t>
+    <t>2024-07-24 13:32:24</t>
+  </si>
+  <si>
+    <t>21446</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>BRAND</t>
+  </si>
+  <si>
+    <t>2024-07-24 11:31:27</t>
+  </si>
+  <si>
+    <t>24935</t>
+  </si>
+  <si>
+    <t>2024-07-24 08:58:46</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>2024-07-24 08:58:32</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>2024-07-24 08:56:10</t>
+  </si>
+  <si>
+    <t>8941.4</t>
+  </si>
+  <si>
+    <t>Outsource</t>
+  </si>
+  <si>
+    <t>2024-07-23 20:30:37</t>
+  </si>
+  <si>
+    <t>34593</t>
+  </si>
+  <si>
+    <t>2024-07-23 20:26:20</t>
+  </si>
+  <si>
+    <t>16190</t>
+  </si>
+  <si>
+    <t>2024-07-23 19:20:33</t>
+  </si>
+  <si>
+    <t>32334</t>
+  </si>
+  <si>
+    <t>2024-07-23 16:31:01</t>
+  </si>
+  <si>
+    <t>1365</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2024-07-23 15:53:00</t>
+  </si>
+  <si>
+    <t>22109</t>
+  </si>
+  <si>
+    <t>2024-07-23 13:12:46</t>
+  </si>
+  <si>
+    <t>6237</t>
+  </si>
+  <si>
+    <t>2024-07-23 13:12:35</t>
+  </si>
+  <si>
+    <t>7024</t>
+  </si>
+  <si>
+    <t>2024-07-23 11:22:10</t>
+  </si>
+  <si>
+    <t>14103</t>
+  </si>
+  <si>
+    <t>2024-07-23 09:36:06</t>
+  </si>
+  <si>
+    <t>10128</t>
+  </si>
+  <si>
+    <t>2024-07-23 08:28:43</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>2024-07-23 07:54:32</t>
+  </si>
+  <si>
+    <t>1331</t>
+  </si>
+  <si>
+    <t>2024-07-23 06:54:41</t>
+  </si>
+  <si>
+    <t>75761</t>
+  </si>
+  <si>
+    <t>2024-07-22 20:26:00</t>
+  </si>
+  <si>
+    <t>19171</t>
+  </si>
+  <si>
+    <t>2024-07-22 20:25:05</t>
+  </si>
+  <si>
+    <t>10716</t>
+  </si>
+  <si>
+    <t>2024-07-22 15:34:19</t>
+  </si>
+  <si>
+    <t>8781</t>
+  </si>
+  <si>
+    <t>2024-07-22 15:33:35</t>
+  </si>
+  <si>
+    <t>15824</t>
+  </si>
+  <si>
+    <t>2024-07-22 15:31:38</t>
+  </si>
+  <si>
+    <t>13830</t>
+  </si>
+  <si>
+    <t>2024-07-22 08:04:55</t>
+  </si>
+  <si>
+    <t>2024-07-22 08:17:02</t>
+  </si>
+  <si>
+    <t>3908</t>
+  </si>
+  <si>
+    <t>2024-07-22 08:09:57</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>2024-07-22 07:27:47</t>
+  </si>
+  <si>
+    <t>49187</t>
+  </si>
+  <si>
+    <t>2024-07-21 15:36:05</t>
+  </si>
+  <si>
+    <t>1391</t>
+  </si>
+  <si>
+    <t>2024-07-20 19:19:29</t>
+  </si>
+  <si>
+    <t>5180</t>
+  </si>
+  <si>
+    <t>2024-07-20 19:14:33</t>
+  </si>
+  <si>
+    <t>439</t>
+  </si>
+  <si>
+    <t>2024-07-20 19:12:22</t>
+  </si>
+  <si>
+    <t>8837</t>
+  </si>
+  <si>
+    <t>2024-07-20 19:12:00</t>
+  </si>
+  <si>
+    <t>10909</t>
+  </si>
+  <si>
+    <t>2024-07-20 14:13:22</t>
+  </si>
+  <si>
+    <t>9235</t>
+  </si>
+  <si>
+    <t>2024-07-20 14:13:06</t>
+  </si>
+  <si>
+    <t>11870</t>
+  </si>
+  <si>
+    <t>2024-07-20 12:24:26</t>
+  </si>
+  <si>
+    <t>27710</t>
+  </si>
+  <si>
+    <t>2024-07-20 09:34:41</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>2024-07-20 09:34:24</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>2024-07-19 20:37:00</t>
+  </si>
+  <si>
+    <t>66803</t>
+  </si>
+  <si>
+    <t>2024-07-19 20:33:02</t>
+  </si>
+  <si>
+    <t>6773</t>
+  </si>
+  <si>
+    <t>2024-07-19 20:32:31</t>
+  </si>
+  <si>
+    <t>8298</t>
+  </si>
+  <si>
+    <t>2024-07-19 19:21:27</t>
+  </si>
+  <si>
+    <t>34257</t>
+  </si>
+  <si>
+    <t>2024-07-19 18:20:49</t>
+  </si>
+  <si>
+    <t>7467</t>
+  </si>
+  <si>
+    <t>2024-07-19 14:44:43</t>
+  </si>
+  <si>
+    <t>1343</t>
+  </si>
+  <si>
+    <t>2024-07-19 12:01:39</t>
+  </si>
+  <si>
+    <t>5242</t>
+  </si>
+  <si>
+    <t>2024-07-19 09:42:03</t>
+  </si>
+  <si>
+    <t>8878</t>
+  </si>
+  <si>
+    <t>2024-07-19 08:47:24</t>
+  </si>
+  <si>
+    <t>15102.75</t>
+  </si>
+  <si>
+    <t>2024-07-19 08:19:50</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>2024-07-19 08:19:35</t>
+  </si>
+  <si>
+    <t>446</t>
+  </si>
+  <si>
+    <t>2024-07-19 07:34:09</t>
+  </si>
+  <si>
+    <t>18877</t>
+  </si>
+  <si>
+    <t>2024-07-18 20:31:40</t>
+  </si>
+  <si>
+    <t>20690</t>
+  </si>
+  <si>
+    <t>2024-07-18 20:31:03</t>
+  </si>
+  <si>
+    <t>2721</t>
+  </si>
+  <si>
+    <t>2024-07-18 19:28:03</t>
+  </si>
+  <si>
+    <t>17474</t>
+  </si>
+  <si>
+    <t>2024-07-18 16:45:03</t>
+  </si>
+  <si>
+    <t>13034</t>
+  </si>
+  <si>
+    <t>2024-07-18 15:59:04</t>
+  </si>
+  <si>
+    <t>2530</t>
+  </si>
+  <si>
+    <t>2024-07-18 15:57:57</t>
+  </si>
+  <si>
+    <t>3127</t>
+  </si>
+  <si>
+    <t>2024-07-18 14:58:17</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>2024-07-18 13:15:32</t>
+  </si>
+  <si>
+    <t>6081</t>
+  </si>
+  <si>
+    <t>2024-07-18 13:15:18</t>
+  </si>
+  <si>
+    <t>6047</t>
+  </si>
+  <si>
+    <t>2024-07-18 12:02:57</t>
+  </si>
+  <si>
+    <t>21455</t>
+  </si>
+  <si>
+    <t>2024-07-18 15:11:27</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>2024-07-18 15:11:12</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2024-07-18 08:33:59</t>
+  </si>
+  <si>
+    <t>16573.9</t>
+  </si>
+  <si>
+    <t>2024-07-17 20:29:44</t>
+  </si>
+  <si>
+    <t>48346</t>
+  </si>
+  <si>
+    <t>2024-07-17 19:11:55</t>
+  </si>
+  <si>
+    <t>17532</t>
+  </si>
+  <si>
+    <t>2024-07-17 16:50:54</t>
+  </si>
+  <si>
+    <t>7862</t>
+  </si>
+  <si>
+    <t>2024-07-17 16:50:34</t>
+  </si>
+  <si>
+    <t>4454</t>
+  </si>
+  <si>
+    <t>2024-07-17 15:26:28</t>
+  </si>
+  <si>
+    <t>1361</t>
+  </si>
+  <si>
+    <t>2024-07-17 11:48:09</t>
+  </si>
+  <si>
+    <t>8037</t>
+  </si>
+  <si>
+    <t>2024-07-17 11:22:59</t>
+  </si>
+  <si>
+    <t>15091</t>
+  </si>
+  <si>
+    <t>2024-07-17 08:59:24</t>
+  </si>
+  <si>
+    <t>10438</t>
+  </si>
+  <si>
+    <t>2024-07-17 10:56:41</t>
+  </si>
+  <si>
+    <t>1317</t>
+  </si>
+  <si>
+    <t>2024-07-17 08:25:19</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>2024-07-17 08:25:04</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>2024-07-17 07:40:10</t>
+  </si>
+  <si>
+    <t>14554</t>
+  </si>
+  <si>
+    <t>2024-07-16 19:34:20</t>
+  </si>
+  <si>
+    <t>2124</t>
+  </si>
+  <si>
+    <t>2024-07-16 19:15:29</t>
+  </si>
+  <si>
+    <t>1409</t>
+  </si>
+  <si>
+    <t>2024-07-16 19:02:08</t>
+  </si>
+  <si>
+    <t>8649</t>
+  </si>
+  <si>
+    <t>2024-07-16 19:00:03</t>
+  </si>
+  <si>
+    <t>9686</t>
+  </si>
+  <si>
+    <t>2024-07-16 15:56:53</t>
+  </si>
+  <si>
+    <t>19283</t>
+  </si>
+  <si>
+    <t>2024-07-16 15:47:46</t>
+  </si>
+  <si>
+    <t>10717</t>
+  </si>
+  <si>
+    <t>2024-07-16 15:47:09</t>
+  </si>
+  <si>
+    <t>4698</t>
+  </si>
+  <si>
+    <t>2024-07-16 15:08:17</t>
+  </si>
+  <si>
+    <t>1323</t>
+  </si>
+  <si>
+    <t>2024-07-16 13:37:59</t>
+  </si>
+  <si>
+    <t>16497</t>
+  </si>
+  <si>
+    <t>2024-07-16 11:09:12</t>
+  </si>
+  <si>
+    <t>3341</t>
+  </si>
+  <si>
+    <t>2024-07-16 11:09:04</t>
+  </si>
+  <si>
+    <t>4349</t>
+  </si>
+  <si>
+    <t>2024-07-16 10:37:40</t>
+  </si>
+  <si>
+    <t>10196</t>
+  </si>
+  <si>
+    <t>2024-07-16 09:48:01</t>
+  </si>
+  <si>
+    <t>18023.7</t>
+  </si>
+  <si>
+    <t>2024-07-16 08:10:33</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2024-07-16 08:10:23</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>2024-07-16 07:18:38</t>
+  </si>
+  <si>
+    <t>43712</t>
+  </si>
+  <si>
+    <t>2024-07-15 19:34:03</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
+  <si>
+    <t>2024-07-15 19:23:25</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>2024-07-15 19:22:22</t>
+  </si>
+  <si>
+    <t>4576</t>
+  </si>
+  <si>
+    <t>2024-07-15 19:21:58</t>
+  </si>
+  <si>
+    <t>12579</t>
+  </si>
+  <si>
+    <t>2024-07-15 15:11:43</t>
+  </si>
+  <si>
+    <t>2396</t>
+  </si>
+  <si>
+    <t>2024-07-15 15:11:30</t>
+  </si>
+  <si>
+    <t>19478</t>
+  </si>
+  <si>
+    <t>2024-07-15 15:03:23</t>
+  </si>
+  <si>
+    <t>1237</t>
+  </si>
+  <si>
+    <t>2024-07-15 08:56:02</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2024-07-15 08:29:42</t>
+  </si>
+  <si>
+    <t>2024-07-15 08:29:29</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>2024-07-15 07:39:49</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>2024-07-14 22:20:08</t>
+  </si>
+  <si>
+    <t>1083</t>
+  </si>
+  <si>
+    <t>2024-07-13 19:23:17</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>2024-07-13 19:23:10</t>
+  </si>
+  <si>
+    <t>8355</t>
+  </si>
+  <si>
+    <t>2024-07-13 17:58:07</t>
+  </si>
+  <si>
+    <t>7735</t>
+  </si>
+  <si>
+    <t>2024-07-13 17:57:55</t>
+  </si>
+  <si>
+    <t>10656</t>
+  </si>
+  <si>
+    <t>2024-07-13 15:55:26</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2024-07-13 15:51:56</t>
+  </si>
+  <si>
+    <t>32742</t>
+  </si>
+  <si>
+    <t>2024-07-13 11:47:04</t>
+  </si>
+  <si>
+    <t>8590</t>
+  </si>
+  <si>
+    <t>2024-07-13 10:08:17</t>
+  </si>
+  <si>
+    <t>2024-07-13 10:07:53</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>2024-07-13 08:06:34</t>
+  </si>
+  <si>
+    <t>47193</t>
+  </si>
+  <si>
+    <t>2024-07-12 19:26:17</t>
+  </si>
+  <si>
+    <t>3685</t>
+  </si>
+  <si>
+    <t>2024-07-12 19:25:49</t>
+  </si>
+  <si>
+    <t>8238</t>
+  </si>
+  <si>
+    <t>2024-07-12 14:47:16</t>
+  </si>
+  <si>
+    <t>1185</t>
+  </si>
+  <si>
+    <t>2024-07-12 14:20:40</t>
+  </si>
+  <si>
+    <t>3317</t>
+  </si>
+  <si>
+    <t>2024-07-12 14:20:27</t>
+  </si>
+  <si>
+    <t>15285</t>
+  </si>
+  <si>
+    <t>2024-07-12 10:38:26</t>
+  </si>
+  <si>
+    <t>11516.55</t>
+  </si>
+  <si>
+    <t>2024-07-12 08:00:17</t>
+  </si>
+  <si>
+    <t>2024-07-12 08:00:03</t>
+  </si>
+  <si>
     <t>93</t>
   </si>
   <si>
-    <t>2024-06-03 00:57:27</t>
-  </si>
-  <si>
-    <t>BRAND</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>2024-06-02 06:34:28</t>
-  </si>
-  <si>
-    <t>9421</t>
-  </si>
-  <si>
-    <t>2024-06-02 06:20:44</t>
-  </si>
-  <si>
-    <t>1274</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2024-06-01 12:27:48</t>
-  </si>
-  <si>
-    <t>6786</t>
-  </si>
-  <si>
-    <t>2024-06-01 12:27:26</t>
-  </si>
-  <si>
-    <t>8985</t>
-  </si>
-  <si>
-    <t>2024-06-01 11:54:44</t>
-  </si>
-  <si>
-    <t>6252</t>
-  </si>
-  <si>
-    <t>2024-06-01 11:29:26</t>
-  </si>
-  <si>
-    <t>7699</t>
-  </si>
-  <si>
-    <t>2024-06-01 09:42:46</t>
-  </si>
-  <si>
-    <t>11118</t>
-  </si>
-  <si>
-    <t>2024-06-01 08:42:13</t>
-  </si>
-  <si>
-    <t>6037</t>
-  </si>
-  <si>
-    <t>2024-06-01 07:42:35</t>
-  </si>
-  <si>
-    <t>10568</t>
-  </si>
-  <si>
-    <t>2024-06-01 07:36:14</t>
-  </si>
-  <si>
-    <t>2507</t>
-  </si>
-  <si>
-    <t>2024-06-01 07:35:42</t>
-  </si>
-  <si>
-    <t>8230</t>
-  </si>
-  <si>
-    <t>2024-06-01 07:35:27</t>
-  </si>
-  <si>
-    <t>2024-06-01 04:28:10</t>
-  </si>
-  <si>
-    <t>15796</t>
+    <t>2024-07-11 19:17:34</t>
+  </si>
+  <si>
+    <t>3125</t>
+  </si>
+  <si>
+    <t>2024-07-11 19:14:22</t>
+  </si>
+  <si>
+    <t>6428</t>
+  </si>
+  <si>
+    <t>2024-07-11 19:11:51</t>
+  </si>
+  <si>
+    <t>17129</t>
+  </si>
+  <si>
+    <t>2024-07-11 16:38:23</t>
+  </si>
+  <si>
+    <t>70554</t>
+  </si>
+  <si>
+    <t>2024-07-11 15:34:39</t>
+  </si>
+  <si>
+    <t>1239</t>
+  </si>
+  <si>
+    <t>2024-07-11 14:20:06</t>
+  </si>
+  <si>
+    <t>9345</t>
+  </si>
+  <si>
+    <t>2024-07-11 14:19:45</t>
+  </si>
+  <si>
+    <t>28905</t>
+  </si>
+  <si>
+    <t>2024-07-11 08:08:31</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>2024-07-11 08:08:13</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>2024-07-11 07:17:39</t>
+  </si>
+  <si>
+    <t>52779</t>
+  </si>
+  <si>
+    <t>2024-07-10 20:49:15</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2024-07-10 20:47:11</t>
+  </si>
+  <si>
+    <t>21689</t>
+  </si>
+  <si>
+    <t>2024-07-10 19:43:49</t>
+  </si>
+  <si>
+    <t>20374</t>
+  </si>
+  <si>
+    <t>2024-07-10 19:08:21</t>
+  </si>
+  <si>
+    <t>3381</t>
+  </si>
+  <si>
+    <t>2024-07-10 16:35:25</t>
+  </si>
+  <si>
+    <t>1209</t>
+  </si>
+  <si>
+    <t>2024-07-10 15:15:48</t>
+  </si>
+  <si>
+    <t>9479</t>
+  </si>
+  <si>
+    <t>2024-07-10 12:20:43</t>
+  </si>
+  <si>
+    <t>5390</t>
+  </si>
+  <si>
+    <t>2024-07-10 12:20:33</t>
+  </si>
+  <si>
+    <t>3833</t>
+  </si>
+  <si>
+    <t>2024-07-10 10:38:59</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>2024-07-10 10:38:46</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>2024-07-10 08:18:00</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2024-07-10 08:17:39</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>2024-07-10 07:17:47</t>
+  </si>
+  <si>
+    <t>51027</t>
+  </si>
+  <si>
+    <t>2024-07-09 19:27:46</t>
+  </si>
+  <si>
+    <t>10966</t>
+  </si>
+  <si>
+    <t>2024-07-09 19:26:07</t>
+  </si>
+  <si>
+    <t>29179</t>
+  </si>
+  <si>
+    <t>2024-07-09 15:14:55</t>
+  </si>
+  <si>
+    <t>1332</t>
+  </si>
+  <si>
+    <t>2024-07-09 13:56:33</t>
+  </si>
+  <si>
+    <t>10083</t>
+  </si>
+  <si>
+    <t>2024-07-09 13:55:06</t>
+  </si>
+  <si>
+    <t>20509</t>
+  </si>
+  <si>
+    <t>2024-07-09 08:00:38</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>2024-07-09 08:00:20</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>2024-07-08 19:33:08</t>
+  </si>
+  <si>
+    <t>84601</t>
+  </si>
+  <si>
+    <t>2024-07-08 19:31:34</t>
+  </si>
+  <si>
+    <t>9803</t>
+  </si>
+  <si>
+    <t>2024-07-08 19:31:03</t>
+  </si>
+  <si>
+    <t>30959</t>
+  </si>
+  <si>
+    <t>2024-07-08 16:02:04</t>
+  </si>
+  <si>
+    <t>21280</t>
+  </si>
+  <si>
+    <t>2024-07-08 15:37:02</t>
+  </si>
+  <si>
+    <t>1196</t>
+  </si>
+  <si>
+    <t>2024-07-08 07:20:11</t>
+  </si>
+  <si>
+    <t>61206</t>
+  </si>
+  <si>
+    <t>2024-07-07 22:13:59</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>2024-07-07 22:12:36</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>2024-07-06 19:35:07</t>
+  </si>
+  <si>
+    <t>4440</t>
+  </si>
+  <si>
+    <t>2024-07-06 19:29:29</t>
+  </si>
+  <si>
+    <t>9138</t>
+  </si>
+  <si>
+    <t>2024-07-06 19:29:11</t>
+  </si>
+  <si>
+    <t>35527</t>
+  </si>
+  <si>
+    <t>2024-07-06 14:47:02</t>
+  </si>
+  <si>
+    <t>1108</t>
+  </si>
+  <si>
+    <t>2024-07-06 14:33:58</t>
+  </si>
+  <si>
+    <t>14838</t>
+  </si>
+  <si>
+    <t>2024-07-06 07:22:30</t>
+  </si>
+  <si>
+    <t>566</t>
+  </si>
+  <si>
+    <t>2024-07-06 07:19:59</t>
+  </si>
+  <si>
+    <t>32800</t>
+  </si>
+  <si>
+    <t>2024-07-05 21:30:31</t>
+  </si>
+  <si>
+    <t>1575</t>
+  </si>
+  <si>
+    <t>2024-07-05 21:10:20</t>
+  </si>
+  <si>
+    <t>15464</t>
+  </si>
+  <si>
+    <t>2024-07-05 21:09:44</t>
+  </si>
+  <si>
+    <t>15178</t>
+  </si>
+  <si>
+    <t>2024-07-05 16:06:54</t>
+  </si>
+  <si>
+    <t>29703</t>
+  </si>
+  <si>
+    <t>2024-07-05 15:56:44</t>
+  </si>
+  <si>
+    <t>40512</t>
+  </si>
+  <si>
+    <t>2024-07-05 15:48:12</t>
+  </si>
+  <si>
+    <t>1392</t>
+  </si>
+  <si>
+    <t>2024-07-05 08:05:04</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>2024-07-05 08:04:50</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>2024-07-05 07:27:44</t>
+  </si>
+  <si>
+    <t>17800</t>
+  </si>
+  <si>
+    <t>2024-07-04 19:31:50</t>
+  </si>
+  <si>
+    <t>2024-07-04 19:30:34</t>
+  </si>
+  <si>
+    <t>15436</t>
+  </si>
+  <si>
+    <t>2024-07-04 19:30:19</t>
+  </si>
+  <si>
+    <t>34898</t>
+  </si>
+  <si>
+    <t>2024-07-04 19:30:17</t>
+  </si>
+  <si>
+    <t>14000</t>
+  </si>
+  <si>
+    <t>2024-07-04 15:55:56</t>
+  </si>
+  <si>
+    <t>39449</t>
+  </si>
+  <si>
+    <t>2024-07-04 15:21:38</t>
+  </si>
+  <si>
+    <t>1374</t>
+  </si>
+  <si>
+    <t>2024-07-04 14:32:26</t>
+  </si>
+  <si>
+    <t>8488</t>
+  </si>
+  <si>
+    <t>2024-07-04 14:32:11</t>
+  </si>
+  <si>
+    <t>15695</t>
+  </si>
+  <si>
+    <t>2024-07-04 08:29:11</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>2024-07-04 08:28:57</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>2024-07-04 07:19:10</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>2024-07-04 07:18:48</t>
+  </si>
+  <si>
+    <t>19400</t>
+  </si>
+  <si>
+    <t>2024-07-03 21:25:04</t>
+  </si>
+  <si>
+    <t>26505</t>
+  </si>
+  <si>
+    <t>2024-07-03 21:24:35</t>
+  </si>
+  <si>
+    <t>33368</t>
+  </si>
+  <si>
+    <t>2024-07-03 16:13:53</t>
+  </si>
+  <si>
+    <t>1286</t>
+  </si>
+  <si>
+    <t>2024-07-03 12:01:58</t>
+  </si>
+  <si>
+    <t>8094</t>
+  </si>
+  <si>
+    <t>2024-07-03 11:18:59</t>
+  </si>
+  <si>
+    <t>15855</t>
+  </si>
+  <si>
+    <t>2024-07-03 08:39:36</t>
+  </si>
+  <si>
+    <t>67263</t>
+  </si>
+  <si>
+    <t>2024-07-03 08:34:42</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>2024-07-03 08:34:08</t>
+  </si>
+  <si>
+    <t>2024-07-03 08:15:56</t>
+  </si>
+  <si>
+    <t>993</t>
+  </si>
+  <si>
+    <t>2024-07-03 07:27:34</t>
+  </si>
+  <si>
+    <t>19476</t>
+  </si>
+  <si>
+    <t>2024-07-03 07:26:57</t>
+  </si>
+  <si>
+    <t>24510</t>
+  </si>
+  <si>
+    <t>2024-07-02 08:10:26</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>2024-07-02 08:06:21</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>2024-07-02 07:58:04</t>
+  </si>
+  <si>
+    <t>1303.83</t>
+  </si>
+  <si>
+    <t>2024-07-02 07:21:04</t>
+  </si>
+  <si>
+    <t>5300</t>
+  </si>
+  <si>
+    <t>2024-07-01 19:29:57</t>
+  </si>
+  <si>
+    <t>3926</t>
+  </si>
+  <si>
+    <t>2024-07-01 19:29:45</t>
+  </si>
+  <si>
+    <t>20145</t>
+  </si>
+  <si>
+    <t>2024-07-01 19:26:44</t>
+  </si>
+  <si>
+    <t>21297</t>
+  </si>
+  <si>
+    <t>2024-07-01 16:01:22</t>
+  </si>
+  <si>
+    <t>13459</t>
+  </si>
+  <si>
+    <t>2024-07-01 16:00:55</t>
+  </si>
+  <si>
+    <t>12399</t>
+  </si>
+  <si>
+    <t>2024-07-01 15:57:00</t>
+  </si>
+  <si>
+    <t>42883</t>
   </si>
 </sst>
 </file>
@@ -484,124 +1621,124 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -615,216 +1752,4036 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" t="s">
+        <v>129</v>
+      </c>
+      <c r="D58" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>138</v>
+      </c>
+      <c r="B63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>144</v>
+      </c>
+      <c r="B66" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>148</v>
+      </c>
+      <c r="B68" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>150</v>
+      </c>
+      <c r="B69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" t="s">
+        <v>151</v>
+      </c>
+      <c r="D69" t="s">
+        <v>38</v>
+      </c>
+      <c r="E69" t="s">
+        <v>38</v>
+      </c>
+      <c r="F69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>152</v>
+      </c>
+      <c r="B70" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" t="s">
+        <v>20</v>
+      </c>
+      <c r="F70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>154</v>
+      </c>
+      <c r="B71" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>156</v>
+      </c>
+      <c r="B72" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>158</v>
+      </c>
+      <c r="B73" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>160</v>
+      </c>
+      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>162</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>164</v>
+      </c>
+      <c r="B76" t="s">
+        <v>165</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>166</v>
+      </c>
+      <c r="B77" t="s">
+        <v>167</v>
+      </c>
+      <c r="C77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>168</v>
+      </c>
+      <c r="B78" t="s">
+        <v>169</v>
+      </c>
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" t="s">
+        <v>20</v>
+      </c>
+      <c r="F78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>170</v>
+      </c>
+      <c r="B79" t="s">
+        <v>171</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>172</v>
+      </c>
+      <c r="B80" t="s">
+        <v>173</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>174</v>
+      </c>
+      <c r="B81" t="s">
+        <v>175</v>
+      </c>
+      <c r="C81" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>176</v>
+      </c>
+      <c r="B82" t="s">
+        <v>177</v>
+      </c>
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" t="s">
+        <v>20</v>
+      </c>
+      <c r="F82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>178</v>
+      </c>
+      <c r="B83" t="s">
+        <v>179</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>180</v>
+      </c>
+      <c r="B84" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" t="s">
+        <v>181</v>
+      </c>
+      <c r="D84" t="s">
+        <v>38</v>
+      </c>
+      <c r="E84" t="s">
+        <v>38</v>
+      </c>
+      <c r="F84" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>182</v>
+      </c>
+      <c r="B85" t="s">
+        <v>183</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>184</v>
+      </c>
+      <c r="B86" t="s">
+        <v>185</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" t="s">
+        <v>20</v>
+      </c>
+      <c r="F86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>186</v>
+      </c>
+      <c r="B87" t="s">
+        <v>187</v>
+      </c>
+      <c r="C87" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" t="s">
+        <v>16</v>
+      </c>
+      <c r="F87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>188</v>
+      </c>
+      <c r="B88" t="s">
+        <v>189</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>190</v>
+      </c>
+      <c r="B89" t="s">
+        <v>191</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" t="s">
+        <v>19</v>
+      </c>
+      <c r="E89" t="s">
+        <v>29</v>
+      </c>
+      <c r="F89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>192</v>
+      </c>
+      <c r="B90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" t="s">
+        <v>19</v>
+      </c>
+      <c r="E90" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>194</v>
+      </c>
+      <c r="B91" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91" t="s">
+        <v>20</v>
+      </c>
+      <c r="F91" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>196</v>
+      </c>
+      <c r="B92" t="s">
+        <v>197</v>
+      </c>
+      <c r="C92" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" t="s">
+        <v>16</v>
+      </c>
+      <c r="F92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>198</v>
+      </c>
+      <c r="B93" t="s">
+        <v>199</v>
+      </c>
+      <c r="C93" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" t="s">
+        <v>16</v>
+      </c>
+      <c r="F93" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>200</v>
+      </c>
+      <c r="B94" t="s">
+        <v>201</v>
+      </c>
+      <c r="C94" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94" t="s">
+        <v>20</v>
+      </c>
+      <c r="F94" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>202</v>
+      </c>
+      <c r="B95" t="s">
+        <v>203</v>
+      </c>
+      <c r="C95" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95" t="s">
+        <v>16</v>
+      </c>
+      <c r="F95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>204</v>
+      </c>
+      <c r="B96" t="s">
+        <v>205</v>
+      </c>
+      <c r="C96" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" t="s">
+        <v>20</v>
+      </c>
+      <c r="F96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>206</v>
+      </c>
+      <c r="B97" t="s">
+        <v>207</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97" t="s">
+        <v>16</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>208</v>
+      </c>
+      <c r="B98" t="s">
+        <v>209</v>
+      </c>
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98" t="s">
+        <v>20</v>
+      </c>
+      <c r="F98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>210</v>
+      </c>
+      <c r="B99" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" t="s">
+        <v>211</v>
+      </c>
+      <c r="D99" t="s">
+        <v>38</v>
+      </c>
+      <c r="E99" t="s">
+        <v>38</v>
+      </c>
+      <c r="F99" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>212</v>
+      </c>
+      <c r="B100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" t="s">
+        <v>19</v>
+      </c>
+      <c r="E100" t="s">
+        <v>20</v>
+      </c>
+      <c r="F100" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>214</v>
+      </c>
+      <c r="B101" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" t="s">
+        <v>19</v>
+      </c>
+      <c r="E101" t="s">
+        <v>20</v>
+      </c>
+      <c r="F101" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>215</v>
+      </c>
+      <c r="B102" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" t="s">
+        <v>19</v>
+      </c>
+      <c r="E102" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>217</v>
+      </c>
+      <c r="B103" t="s">
+        <v>218</v>
+      </c>
+      <c r="C103" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" t="s">
+        <v>16</v>
+      </c>
+      <c r="F103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>219</v>
+      </c>
+      <c r="B104" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" t="s">
+        <v>220</v>
+      </c>
+      <c r="D104" t="s">
+        <v>38</v>
+      </c>
+      <c r="E104" t="s">
+        <v>38</v>
+      </c>
+      <c r="F104" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>221</v>
+      </c>
+      <c r="B105" t="s">
+        <v>222</v>
+      </c>
+      <c r="C105" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" t="s">
+        <v>19</v>
+      </c>
+      <c r="E105" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>223</v>
+      </c>
+      <c r="B106" t="s">
+        <v>224</v>
+      </c>
+      <c r="C106" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" t="s">
+        <v>19</v>
+      </c>
+      <c r="E106" t="s">
+        <v>20</v>
+      </c>
+      <c r="F106" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>225</v>
+      </c>
+      <c r="B107" t="s">
+        <v>226</v>
+      </c>
+      <c r="C107" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" t="s">
+        <v>19</v>
+      </c>
+      <c r="E107" t="s">
+        <v>20</v>
+      </c>
+      <c r="F107" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>227</v>
+      </c>
+      <c r="B108" t="s">
+        <v>228</v>
+      </c>
+      <c r="C108" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" t="s">
+        <v>19</v>
+      </c>
+      <c r="E108" t="s">
+        <v>16</v>
+      </c>
+      <c r="F108" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>229</v>
+      </c>
+      <c r="B109" t="s">
+        <v>230</v>
+      </c>
+      <c r="C109" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" t="s">
+        <v>16</v>
+      </c>
+      <c r="F109" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>231</v>
+      </c>
+      <c r="B110" t="s">
+        <v>232</v>
+      </c>
+      <c r="C110" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" t="s">
+        <v>16</v>
+      </c>
+      <c r="F110" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>233</v>
+      </c>
+      <c r="B111" t="s">
+        <v>234</v>
+      </c>
+      <c r="C111" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" t="s">
+        <v>19</v>
+      </c>
+      <c r="E111" t="s">
+        <v>20</v>
+      </c>
+      <c r="F111" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>235</v>
+      </c>
+      <c r="B112" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" t="s">
+        <v>19</v>
+      </c>
+      <c r="E112" t="s">
+        <v>16</v>
+      </c>
+      <c r="F112" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>236</v>
+      </c>
+      <c r="B113" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" t="s">
+        <v>14</v>
+      </c>
+      <c r="D113" t="s">
+        <v>19</v>
+      </c>
+      <c r="E113" t="s">
+        <v>20</v>
+      </c>
+      <c r="F113" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>238</v>
+      </c>
+      <c r="B114" t="s">
+        <v>239</v>
+      </c>
+      <c r="C114" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114" t="s">
+        <v>16</v>
+      </c>
+      <c r="F114" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>240</v>
+      </c>
+      <c r="B115" t="s">
+        <v>241</v>
+      </c>
+      <c r="C115" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" t="s">
+        <v>19</v>
+      </c>
+      <c r="E115" t="s">
+        <v>16</v>
+      </c>
+      <c r="F115" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>242</v>
+      </c>
+      <c r="B116" t="s">
+        <v>243</v>
+      </c>
+      <c r="C116" t="s">
+        <v>14</v>
+      </c>
+      <c r="D116" t="s">
+        <v>19</v>
+      </c>
+      <c r="E116" t="s">
+        <v>20</v>
+      </c>
+      <c r="F116" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>244</v>
+      </c>
+      <c r="B117" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" t="s">
+        <v>245</v>
+      </c>
+      <c r="D117" t="s">
+        <v>38</v>
+      </c>
+      <c r="E117" t="s">
+        <v>38</v>
+      </c>
+      <c r="F117" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>246</v>
+      </c>
+      <c r="B118" t="s">
+        <v>247</v>
+      </c>
+      <c r="C118" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118" t="s">
+        <v>19</v>
+      </c>
+      <c r="E118" t="s">
+        <v>16</v>
+      </c>
+      <c r="F118" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>248</v>
+      </c>
+      <c r="B119" t="s">
+        <v>249</v>
+      </c>
+      <c r="C119" t="s">
+        <v>14</v>
+      </c>
+      <c r="D119" t="s">
+        <v>19</v>
+      </c>
+      <c r="E119" t="s">
+        <v>20</v>
+      </c>
+      <c r="F119" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>250</v>
+      </c>
+      <c r="B120" t="s">
+        <v>251</v>
+      </c>
+      <c r="C120" t="s">
+        <v>14</v>
+      </c>
+      <c r="D120" t="s">
+        <v>19</v>
+      </c>
+      <c r="E120" t="s">
+        <v>29</v>
+      </c>
+      <c r="F120" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>252</v>
+      </c>
+      <c r="B121" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" t="s">
+        <v>14</v>
+      </c>
+      <c r="D121" t="s">
+        <v>19</v>
+      </c>
+      <c r="E121" t="s">
+        <v>20</v>
+      </c>
+      <c r="F121" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>253</v>
+      </c>
+      <c r="B122" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122" t="s">
+        <v>19</v>
+      </c>
+      <c r="E122" t="s">
+        <v>16</v>
+      </c>
+      <c r="F122" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>255</v>
+      </c>
+      <c r="B123" t="s">
+        <v>256</v>
+      </c>
+      <c r="C123" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" t="s">
+        <v>19</v>
+      </c>
+      <c r="E123" t="s">
+        <v>20</v>
+      </c>
+      <c r="F123" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>257</v>
+      </c>
+      <c r="B124" t="s">
+        <v>258</v>
+      </c>
+      <c r="C124" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" t="s">
+        <v>19</v>
+      </c>
+      <c r="E124" t="s">
+        <v>16</v>
+      </c>
+      <c r="F124" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>259</v>
+      </c>
+      <c r="B125" t="s">
+        <v>260</v>
+      </c>
+      <c r="C125" t="s">
+        <v>14</v>
+      </c>
+      <c r="D125" t="s">
+        <v>19</v>
+      </c>
+      <c r="E125" t="s">
+        <v>20</v>
+      </c>
+      <c r="F125" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>261</v>
+      </c>
+      <c r="B126" t="s">
+        <v>262</v>
+      </c>
+      <c r="C126" t="s">
+        <v>14</v>
+      </c>
+      <c r="D126" t="s">
+        <v>15</v>
+      </c>
+      <c r="E126" t="s">
+        <v>16</v>
+      </c>
+      <c r="F126" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>263</v>
+      </c>
+      <c r="B127" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" t="s">
+        <v>264</v>
+      </c>
+      <c r="D127" t="s">
+        <v>38</v>
+      </c>
+      <c r="E127" t="s">
+        <v>38</v>
+      </c>
+      <c r="F127" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>265</v>
+      </c>
+      <c r="B128" t="s">
+        <v>266</v>
+      </c>
+      <c r="C128" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128" t="s">
+        <v>19</v>
+      </c>
+      <c r="E128" t="s">
+        <v>20</v>
+      </c>
+      <c r="F128" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>267</v>
+      </c>
+      <c r="B129" t="s">
+        <v>268</v>
+      </c>
+      <c r="C129" t="s">
+        <v>14</v>
+      </c>
+      <c r="D129" t="s">
+        <v>19</v>
+      </c>
+      <c r="E129" t="s">
+        <v>16</v>
+      </c>
+      <c r="F129" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>269</v>
+      </c>
+      <c r="B130" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130" t="s">
+        <v>19</v>
+      </c>
+      <c r="E130" t="s">
+        <v>20</v>
+      </c>
+      <c r="F130" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>271</v>
+      </c>
+      <c r="B131" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" t="s">
+        <v>19</v>
+      </c>
+      <c r="E131" t="s">
+        <v>16</v>
+      </c>
+      <c r="F131" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>273</v>
+      </c>
+      <c r="B132" t="s">
+        <v>274</v>
+      </c>
+      <c r="C132" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132" t="s">
+        <v>16</v>
+      </c>
+      <c r="F132" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>275</v>
+      </c>
+      <c r="B133" t="s">
+        <v>276</v>
+      </c>
+      <c r="C133" t="s">
+        <v>14</v>
+      </c>
+      <c r="D133" t="s">
+        <v>19</v>
+      </c>
+      <c r="E133" t="s">
+        <v>16</v>
+      </c>
+      <c r="F133" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>277</v>
+      </c>
+      <c r="B134" t="s">
+        <v>278</v>
+      </c>
+      <c r="C134" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134" t="s">
+        <v>19</v>
+      </c>
+      <c r="E134" t="s">
+        <v>20</v>
+      </c>
+      <c r="F134" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>279</v>
+      </c>
+      <c r="B135" t="s">
+        <v>280</v>
+      </c>
+      <c r="C135" t="s">
+        <v>14</v>
+      </c>
+      <c r="D135" t="s">
+        <v>19</v>
+      </c>
+      <c r="E135" t="s">
+        <v>20</v>
+      </c>
+      <c r="F135" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>281</v>
+      </c>
+      <c r="B136" t="s">
+        <v>282</v>
+      </c>
+      <c r="C136" t="s">
+        <v>14</v>
+      </c>
+      <c r="D136" t="s">
+        <v>19</v>
+      </c>
+      <c r="E136" t="s">
+        <v>16</v>
+      </c>
+      <c r="F136" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>283</v>
+      </c>
+      <c r="B137" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" t="s">
+        <v>284</v>
+      </c>
+      <c r="D137" t="s">
+        <v>38</v>
+      </c>
+      <c r="E137" t="s">
+        <v>38</v>
+      </c>
+      <c r="F137" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>285</v>
+      </c>
+      <c r="B138" t="s">
+        <v>286</v>
+      </c>
+      <c r="C138" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138" t="s">
+        <v>19</v>
+      </c>
+      <c r="E138" t="s">
+        <v>20</v>
+      </c>
+      <c r="F138" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>287</v>
+      </c>
+      <c r="B139" t="s">
+        <v>288</v>
+      </c>
+      <c r="C139" t="s">
+        <v>14</v>
+      </c>
+      <c r="D139" t="s">
+        <v>19</v>
+      </c>
+      <c r="E139" t="s">
+        <v>16</v>
+      </c>
+      <c r="F139" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>289</v>
+      </c>
+      <c r="B140" t="s">
+        <v>290</v>
+      </c>
+      <c r="C140" t="s">
+        <v>14</v>
+      </c>
+      <c r="D140" t="s">
+        <v>19</v>
+      </c>
+      <c r="E140" t="s">
+        <v>20</v>
+      </c>
+      <c r="F140" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>291</v>
+      </c>
+      <c r="B141" t="s">
+        <v>14</v>
+      </c>
+      <c r="C141" t="s">
+        <v>14</v>
+      </c>
+      <c r="D141" t="s">
+        <v>19</v>
+      </c>
+      <c r="E141" t="s">
+        <v>20</v>
+      </c>
+      <c r="F141" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>293</v>
+      </c>
+      <c r="B142" t="s">
+        <v>14</v>
+      </c>
+      <c r="C142" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142" t="s">
+        <v>19</v>
+      </c>
+      <c r="E142" t="s">
+        <v>16</v>
+      </c>
+      <c r="F142" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>295</v>
+      </c>
+      <c r="B143" t="s">
+        <v>14</v>
+      </c>
+      <c r="C143" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143" t="s">
+        <v>19</v>
+      </c>
+      <c r="E143" t="s">
+        <v>20</v>
+      </c>
+      <c r="F143" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>297</v>
+      </c>
+      <c r="B144" t="s">
+        <v>14</v>
+      </c>
+      <c r="C144" t="s">
+        <v>14</v>
+      </c>
+      <c r="D144" t="s">
+        <v>19</v>
+      </c>
+      <c r="E144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F144" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>299</v>
+      </c>
+      <c r="B145" t="s">
+        <v>300</v>
+      </c>
+      <c r="C145" t="s">
+        <v>14</v>
+      </c>
+      <c r="D145" t="s">
+        <v>15</v>
+      </c>
+      <c r="E145" t="s">
+        <v>16</v>
+      </c>
+      <c r="F145" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>301</v>
+      </c>
+      <c r="B146" t="s">
+        <v>302</v>
+      </c>
+      <c r="C146" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" t="s">
+        <v>19</v>
+      </c>
+      <c r="E146" t="s">
+        <v>16</v>
+      </c>
+      <c r="F146" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>303</v>
+      </c>
+      <c r="B147" t="s">
+        <v>304</v>
+      </c>
+      <c r="C147" t="s">
+        <v>14</v>
+      </c>
+      <c r="D147" t="s">
+        <v>19</v>
+      </c>
+      <c r="E147" t="s">
+        <v>20</v>
+      </c>
+      <c r="F147" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>305</v>
+      </c>
+      <c r="B148" t="s">
+        <v>14</v>
+      </c>
+      <c r="C148" t="s">
+        <v>306</v>
+      </c>
+      <c r="D148" t="s">
+        <v>38</v>
+      </c>
+      <c r="E148" t="s">
+        <v>38</v>
+      </c>
+      <c r="F148" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>307</v>
+      </c>
+      <c r="B149" t="s">
+        <v>308</v>
+      </c>
+      <c r="C149" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149" t="s">
+        <v>19</v>
+      </c>
+      <c r="E149" t="s">
+        <v>20</v>
+      </c>
+      <c r="F149" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>309</v>
+      </c>
+      <c r="B150" t="s">
+        <v>310</v>
+      </c>
+      <c r="C150" t="s">
+        <v>14</v>
+      </c>
+      <c r="D150" t="s">
+        <v>19</v>
+      </c>
+      <c r="E150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F150" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>311</v>
+      </c>
+      <c r="B151" t="s">
+        <v>14</v>
+      </c>
+      <c r="C151" t="s">
+        <v>14</v>
+      </c>
+      <c r="D151" t="s">
+        <v>19</v>
+      </c>
+      <c r="E151" t="s">
+        <v>20</v>
+      </c>
+      <c r="F151" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>313</v>
+      </c>
+      <c r="B152" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" t="s">
+        <v>14</v>
+      </c>
+      <c r="D152" t="s">
+        <v>19</v>
+      </c>
+      <c r="E152" t="s">
+        <v>16</v>
+      </c>
+      <c r="F152" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>315</v>
+      </c>
+      <c r="B153" t="s">
+        <v>316</v>
+      </c>
+      <c r="C153" t="s">
+        <v>14</v>
+      </c>
+      <c r="D153" t="s">
+        <v>15</v>
+      </c>
+      <c r="E153" t="s">
+        <v>16</v>
+      </c>
+      <c r="F153" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>317</v>
+      </c>
+      <c r="B154" t="s">
+        <v>318</v>
+      </c>
+      <c r="C154" t="s">
+        <v>14</v>
+      </c>
+      <c r="D154" t="s">
+        <v>19</v>
+      </c>
+      <c r="E154" t="s">
+        <v>16</v>
+      </c>
+      <c r="F154" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>319</v>
+      </c>
+      <c r="B155" t="s">
+        <v>320</v>
+      </c>
+      <c r="C155" t="s">
+        <v>14</v>
+      </c>
+      <c r="D155" t="s">
+        <v>19</v>
+      </c>
+      <c r="E155" t="s">
+        <v>20</v>
+      </c>
+      <c r="F155" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>321</v>
+      </c>
+      <c r="B156" t="s">
+        <v>322</v>
+      </c>
+      <c r="C156" t="s">
+        <v>14</v>
+      </c>
+      <c r="D156" t="s">
+        <v>19</v>
+      </c>
+      <c r="E156" t="s">
+        <v>16</v>
+      </c>
+      <c r="F156" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>323</v>
+      </c>
+      <c r="B157" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" t="s">
+        <v>324</v>
+      </c>
+      <c r="D157" t="s">
+        <v>38</v>
+      </c>
+      <c r="E157" t="s">
+        <v>38</v>
+      </c>
+      <c r="F157" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>325</v>
+      </c>
+      <c r="B158" t="s">
+        <v>326</v>
+      </c>
+      <c r="C158" t="s">
+        <v>14</v>
+      </c>
+      <c r="D158" t="s">
+        <v>15</v>
+      </c>
+      <c r="E158" t="s">
+        <v>16</v>
+      </c>
+      <c r="F158" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>327</v>
+      </c>
+      <c r="B159" t="s">
+        <v>14</v>
+      </c>
+      <c r="C159" t="s">
+        <v>14</v>
+      </c>
+      <c r="D159" t="s">
+        <v>19</v>
+      </c>
+      <c r="E159" t="s">
+        <v>20</v>
+      </c>
+      <c r="F159" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>329</v>
+      </c>
+      <c r="B160" t="s">
+        <v>14</v>
+      </c>
+      <c r="C160" t="s">
+        <v>14</v>
+      </c>
+      <c r="D160" t="s">
+        <v>19</v>
+      </c>
+      <c r="E160" t="s">
+        <v>16</v>
+      </c>
+      <c r="F160" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>331</v>
+      </c>
+      <c r="B161" t="s">
+        <v>332</v>
+      </c>
+      <c r="C161" t="s">
+        <v>14</v>
+      </c>
+      <c r="D161" t="s">
+        <v>19</v>
+      </c>
+      <c r="E161" t="s">
+        <v>20</v>
+      </c>
+      <c r="F161" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>333</v>
+      </c>
+      <c r="B162" t="s">
+        <v>334</v>
+      </c>
+      <c r="C162" t="s">
+        <v>14</v>
+      </c>
+      <c r="D162" t="s">
+        <v>19</v>
+      </c>
+      <c r="E162" t="s">
+        <v>20</v>
+      </c>
+      <c r="F162" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>335</v>
+      </c>
+      <c r="B163" t="s">
+        <v>336</v>
+      </c>
+      <c r="C163" t="s">
+        <v>14</v>
+      </c>
+      <c r="D163" t="s">
+        <v>19</v>
+      </c>
+      <c r="E163" t="s">
+        <v>16</v>
+      </c>
+      <c r="F163" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>337</v>
+      </c>
+      <c r="B164" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164" t="s">
+        <v>338</v>
+      </c>
+      <c r="D164" t="s">
+        <v>38</v>
+      </c>
+      <c r="E164" t="s">
+        <v>38</v>
+      </c>
+      <c r="F164" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>339</v>
+      </c>
+      <c r="B165" t="s">
+        <v>340</v>
+      </c>
+      <c r="C165" t="s">
+        <v>14</v>
+      </c>
+      <c r="D165" t="s">
+        <v>19</v>
+      </c>
+      <c r="E165" t="s">
+        <v>20</v>
+      </c>
+      <c r="F165" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>341</v>
+      </c>
+      <c r="B166" t="s">
+        <v>342</v>
+      </c>
+      <c r="C166" t="s">
+        <v>14</v>
+      </c>
+      <c r="D166" t="s">
+        <v>15</v>
+      </c>
+      <c r="E166" t="s">
+        <v>16</v>
+      </c>
+      <c r="F166" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>343</v>
+      </c>
+      <c r="B167" t="s">
+        <v>344</v>
+      </c>
+      <c r="C167" t="s">
+        <v>14</v>
+      </c>
+      <c r="D167" t="s">
+        <v>15</v>
+      </c>
+      <c r="E167" t="s">
+        <v>16</v>
+      </c>
+      <c r="F167" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>345</v>
+      </c>
+      <c r="B168" t="s">
+        <v>346</v>
+      </c>
+      <c r="C168" t="s">
+        <v>14</v>
+      </c>
+      <c r="D168" t="s">
+        <v>19</v>
+      </c>
+      <c r="E168" t="s">
+        <v>16</v>
+      </c>
+      <c r="F168" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>347</v>
+      </c>
+      <c r="B169" t="s">
+        <v>348</v>
+      </c>
+      <c r="C169" t="s">
+        <v>14</v>
+      </c>
+      <c r="D169" t="s">
+        <v>19</v>
+      </c>
+      <c r="E169" t="s">
+        <v>16</v>
+      </c>
+      <c r="F169" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>349</v>
+      </c>
+      <c r="B170" t="s">
+        <v>350</v>
+      </c>
+      <c r="C170" t="s">
+        <v>14</v>
+      </c>
+      <c r="D170" t="s">
+        <v>19</v>
+      </c>
+      <c r="E170" t="s">
+        <v>20</v>
+      </c>
+      <c r="F170" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>351</v>
+      </c>
+      <c r="B171" t="s">
+        <v>352</v>
+      </c>
+      <c r="C171" t="s">
+        <v>14</v>
+      </c>
+      <c r="D171" t="s">
+        <v>19</v>
+      </c>
+      <c r="E171" t="s">
+        <v>16</v>
+      </c>
+      <c r="F171" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>353</v>
+      </c>
+      <c r="B172" t="s">
+        <v>354</v>
+      </c>
+      <c r="C172" t="s">
+        <v>14</v>
+      </c>
+      <c r="D172" t="s">
+        <v>15</v>
+      </c>
+      <c r="E172" t="s">
+        <v>16</v>
+      </c>
+      <c r="F172" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>355</v>
+      </c>
+      <c r="B173" t="s">
+        <v>14</v>
+      </c>
+      <c r="C173" t="s">
+        <v>356</v>
+      </c>
+      <c r="D173" t="s">
+        <v>38</v>
+      </c>
+      <c r="E173" t="s">
+        <v>38</v>
+      </c>
+      <c r="F173" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>357</v>
+      </c>
+      <c r="B174" t="s">
+        <v>14</v>
+      </c>
+      <c r="C174" t="s">
+        <v>14</v>
+      </c>
+      <c r="D174" t="s">
+        <v>19</v>
+      </c>
+      <c r="E174" t="s">
+        <v>20</v>
+      </c>
+      <c r="F174" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>359</v>
+      </c>
+      <c r="B175" t="s">
+        <v>14</v>
+      </c>
+      <c r="C175" t="s">
+        <v>14</v>
+      </c>
+      <c r="D175" t="s">
+        <v>19</v>
+      </c>
+      <c r="E175" t="s">
+        <v>16</v>
+      </c>
+      <c r="F175" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>361</v>
+      </c>
+      <c r="B176" t="s">
+        <v>362</v>
+      </c>
+      <c r="C176" t="s">
+        <v>14</v>
+      </c>
+      <c r="D176" t="s">
+        <v>15</v>
+      </c>
+      <c r="E176" t="s">
+        <v>16</v>
+      </c>
+      <c r="F176" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>363</v>
+      </c>
+      <c r="B177" t="s">
+        <v>119</v>
+      </c>
+      <c r="C177" t="s">
+        <v>14</v>
+      </c>
+      <c r="D177" t="s">
+        <v>19</v>
+      </c>
+      <c r="E177" t="s">
+        <v>16</v>
+      </c>
+      <c r="F177" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>364</v>
+      </c>
+      <c r="B178" t="s">
+        <v>365</v>
+      </c>
+      <c r="C178" t="s">
+        <v>14</v>
+      </c>
+      <c r="D178" t="s">
+        <v>19</v>
+      </c>
+      <c r="E178" t="s">
+        <v>16</v>
+      </c>
+      <c r="F178" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>366</v>
+      </c>
+      <c r="B179" t="s">
+        <v>367</v>
+      </c>
+      <c r="C179" t="s">
+        <v>14</v>
+      </c>
+      <c r="D179" t="s">
+        <v>19</v>
+      </c>
+      <c r="E179" t="s">
+        <v>20</v>
+      </c>
+      <c r="F179" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>368</v>
+      </c>
+      <c r="B180" t="s">
+        <v>369</v>
+      </c>
+      <c r="C180" t="s">
+        <v>14</v>
+      </c>
+      <c r="D180" t="s">
+        <v>15</v>
+      </c>
+      <c r="E180" t="s">
+        <v>16</v>
+      </c>
+      <c r="F180" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>370</v>
+      </c>
+      <c r="B181" t="s">
+        <v>371</v>
+      </c>
+      <c r="C181" t="s">
+        <v>14</v>
+      </c>
+      <c r="D181" t="s">
+        <v>15</v>
+      </c>
+      <c r="E181" t="s">
+        <v>16</v>
+      </c>
+      <c r="F181" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>372</v>
+      </c>
+      <c r="B182" t="s">
+        <v>14</v>
+      </c>
+      <c r="C182" t="s">
+        <v>373</v>
+      </c>
+      <c r="D182" t="s">
+        <v>38</v>
+      </c>
+      <c r="E182" t="s">
+        <v>38</v>
+      </c>
+      <c r="F182" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>374</v>
+      </c>
+      <c r="B183" t="s">
+        <v>375</v>
+      </c>
+      <c r="C183" t="s">
+        <v>14</v>
+      </c>
+      <c r="D183" t="s">
+        <v>19</v>
+      </c>
+      <c r="E183" t="s">
+        <v>16</v>
+      </c>
+      <c r="F183" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>376</v>
+      </c>
+      <c r="B184" t="s">
+        <v>377</v>
+      </c>
+      <c r="C184" t="s">
+        <v>14</v>
+      </c>
+      <c r="D184" t="s">
+        <v>19</v>
+      </c>
+      <c r="E184" t="s">
+        <v>20</v>
+      </c>
+      <c r="F184" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>378</v>
+      </c>
+      <c r="B185" t="s">
+        <v>14</v>
+      </c>
+      <c r="C185" t="s">
+        <v>14</v>
+      </c>
+      <c r="D185" t="s">
+        <v>19</v>
+      </c>
+      <c r="E185" t="s">
+        <v>20</v>
+      </c>
+      <c r="F185" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>380</v>
+      </c>
+      <c r="B186" t="s">
+        <v>14</v>
+      </c>
+      <c r="C186" t="s">
+        <v>14</v>
+      </c>
+      <c r="D186" t="s">
+        <v>19</v>
+      </c>
+      <c r="E186" t="s">
+        <v>16</v>
+      </c>
+      <c r="F186" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>382</v>
+      </c>
+      <c r="B187" t="s">
+        <v>383</v>
+      </c>
+      <c r="C187" t="s">
+        <v>14</v>
+      </c>
+      <c r="D187" t="s">
+        <v>15</v>
+      </c>
+      <c r="E187" t="s">
+        <v>16</v>
+      </c>
+      <c r="F187" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>384</v>
+      </c>
+      <c r="B188" t="s">
+        <v>385</v>
+      </c>
+      <c r="C188" t="s">
+        <v>14</v>
+      </c>
+      <c r="D188" t="s">
+        <v>15</v>
+      </c>
+      <c r="E188" t="s">
+        <v>16</v>
+      </c>
+      <c r="F188" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>386</v>
+      </c>
+      <c r="B189" t="s">
+        <v>387</v>
+      </c>
+      <c r="C189" t="s">
+        <v>14</v>
+      </c>
+      <c r="D189" t="s">
+        <v>19</v>
+      </c>
+      <c r="E189" t="s">
+        <v>16</v>
+      </c>
+      <c r="F189" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>388</v>
+      </c>
+      <c r="B190" t="s">
+        <v>389</v>
+      </c>
+      <c r="C190" t="s">
+        <v>14</v>
+      </c>
+      <c r="D190" t="s">
+        <v>19</v>
+      </c>
+      <c r="E190" t="s">
+        <v>20</v>
+      </c>
+      <c r="F190" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>390</v>
+      </c>
+      <c r="B191" t="s">
+        <v>14</v>
+      </c>
+      <c r="C191" t="s">
+        <v>391</v>
+      </c>
+      <c r="D191" t="s">
+        <v>38</v>
+      </c>
+      <c r="E191" t="s">
+        <v>38</v>
+      </c>
+      <c r="F191" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>392</v>
+      </c>
+      <c r="B192" t="s">
+        <v>393</v>
+      </c>
+      <c r="C192" t="s">
+        <v>14</v>
+      </c>
+      <c r="D192" t="s">
+        <v>19</v>
+      </c>
+      <c r="E192" t="s">
+        <v>20</v>
+      </c>
+      <c r="F192" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>394</v>
+      </c>
+      <c r="B193" t="s">
+        <v>395</v>
+      </c>
+      <c r="C193" t="s">
+        <v>14</v>
+      </c>
+      <c r="D193" t="s">
+        <v>15</v>
+      </c>
+      <c r="E193" t="s">
+        <v>16</v>
+      </c>
+      <c r="F193" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>396</v>
+      </c>
+      <c r="B194" t="s">
+        <v>397</v>
+      </c>
+      <c r="C194" t="s">
+        <v>14</v>
+      </c>
+      <c r="D194" t="s">
+        <v>15</v>
+      </c>
+      <c r="E194" t="s">
+        <v>16</v>
+      </c>
+      <c r="F194" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>398</v>
+      </c>
+      <c r="B195" t="s">
+        <v>14</v>
+      </c>
+      <c r="C195" t="s">
+        <v>14</v>
+      </c>
+      <c r="D195" t="s">
+        <v>19</v>
+      </c>
+      <c r="E195" t="s">
+        <v>20</v>
+      </c>
+      <c r="F195" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>400</v>
+      </c>
+      <c r="B196" t="s">
+        <v>14</v>
+      </c>
+      <c r="C196" t="s">
+        <v>14</v>
+      </c>
+      <c r="D196" t="s">
+        <v>19</v>
+      </c>
+      <c r="E196" t="s">
+        <v>16</v>
+      </c>
+      <c r="F196" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>401</v>
+      </c>
+      <c r="B197" t="s">
+        <v>14</v>
+      </c>
+      <c r="C197" t="s">
+        <v>402</v>
+      </c>
+      <c r="D197" t="s">
+        <v>38</v>
+      </c>
+      <c r="E197" t="s">
+        <v>38</v>
+      </c>
+      <c r="F197" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>403</v>
+      </c>
+      <c r="B198" t="s">
+        <v>404</v>
+      </c>
+      <c r="C198" t="s">
+        <v>14</v>
+      </c>
+      <c r="D198" t="s">
+        <v>19</v>
+      </c>
+      <c r="E198" t="s">
+        <v>20</v>
+      </c>
+      <c r="F198" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>405</v>
+      </c>
+      <c r="B199" t="s">
+        <v>406</v>
+      </c>
+      <c r="C199" t="s">
+        <v>14</v>
+      </c>
+      <c r="D199" t="s">
+        <v>19</v>
+      </c>
+      <c r="E199" t="s">
+        <v>16</v>
+      </c>
+      <c r="F199" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>407</v>
+      </c>
+      <c r="B200" t="s">
+        <v>14</v>
+      </c>
+      <c r="C200" t="s">
+        <v>14</v>
+      </c>
+      <c r="D200" t="s">
+        <v>19</v>
+      </c>
+      <c r="E200" t="s">
+        <v>20</v>
+      </c>
+      <c r="F200" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>409</v>
+      </c>
+      <c r="B201" t="s">
+        <v>14</v>
+      </c>
+      <c r="C201" t="s">
+        <v>14</v>
+      </c>
+      <c r="D201" t="s">
+        <v>19</v>
+      </c>
+      <c r="E201" t="s">
+        <v>16</v>
+      </c>
+      <c r="F201" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>411</v>
+      </c>
+      <c r="B202" t="s">
+        <v>14</v>
+      </c>
+      <c r="C202" t="s">
+        <v>412</v>
+      </c>
+      <c r="D202" t="s">
+        <v>38</v>
+      </c>
+      <c r="E202" t="s">
+        <v>38</v>
+      </c>
+      <c r="F202" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>413</v>
+      </c>
+      <c r="B203" t="s">
+        <v>414</v>
+      </c>
+      <c r="C203" t="s">
+        <v>14</v>
+      </c>
+      <c r="D203" t="s">
+        <v>15</v>
+      </c>
+      <c r="E203" t="s">
+        <v>16</v>
+      </c>
+      <c r="F203" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>415</v>
+      </c>
+      <c r="B204" t="s">
+        <v>416</v>
+      </c>
+      <c r="C204" t="s">
+        <v>14</v>
+      </c>
+      <c r="D204" t="s">
+        <v>19</v>
+      </c>
+      <c r="E204" t="s">
+        <v>20</v>
+      </c>
+      <c r="F204" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>417</v>
+      </c>
+      <c r="B205" t="s">
+        <v>418</v>
+      </c>
+      <c r="C205" t="s">
+        <v>14</v>
+      </c>
+      <c r="D205" t="s">
+        <v>19</v>
+      </c>
+      <c r="E205" t="s">
+        <v>16</v>
+      </c>
+      <c r="F205" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>419</v>
+      </c>
+      <c r="B206" t="s">
+        <v>420</v>
+      </c>
+      <c r="C206" t="s">
+        <v>14</v>
+      </c>
+      <c r="D206" t="s">
+        <v>15</v>
+      </c>
+      <c r="E206" t="s">
+        <v>16</v>
+      </c>
+      <c r="F206" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>421</v>
+      </c>
+      <c r="B207" t="s">
+        <v>422</v>
+      </c>
+      <c r="C207" t="s">
+        <v>14</v>
+      </c>
+      <c r="D207" t="s">
+        <v>19</v>
+      </c>
+      <c r="E207" t="s">
+        <v>20</v>
+      </c>
+      <c r="F207" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>423</v>
+      </c>
+      <c r="B208" t="s">
+        <v>424</v>
+      </c>
+      <c r="C208" t="s">
+        <v>14</v>
+      </c>
+      <c r="D208" t="s">
+        <v>19</v>
+      </c>
+      <c r="E208" t="s">
+        <v>16</v>
+      </c>
+      <c r="F208" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>425</v>
+      </c>
+      <c r="B209" t="s">
+        <v>426</v>
+      </c>
+      <c r="C209" t="s">
+        <v>14</v>
+      </c>
+      <c r="D209" t="s">
+        <v>15</v>
+      </c>
+      <c r="E209" t="s">
+        <v>16</v>
+      </c>
+      <c r="F209" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/static/uploads/Book1.xlsx
+++ b/static/uploads/Book1.xlsx
@@ -14,29 +14,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Work Center</t>
   </si>
   <si>
-    <t>CUTTING</t>
+    <t>WOODFINISHING</t>
   </si>
   <si>
     <t>From</t>
   </si>
   <si>
-    <t>2024-07-25</t>
+    <t>2024-07-29</t>
   </si>
   <si>
     <t>To</t>
   </si>
   <si>
-    <t>2024-07-27</t>
+    <t>2024-07-30</t>
   </si>
   <si>
     <t>Ngày giờ nhập</t>
   </si>
   <si>
+    <t>Nhập cho ngày</t>
+  </si>
+  <si>
     <t>Sản Lượng</t>
   </si>
   <si>
@@ -52,190 +55,139 @@
     <t>Số lượng (pcs)</t>
   </si>
   <si>
-    <t>2024-07-29 07:39:30</t>
+    <t>2024-07-30 16:04:13</t>
+  </si>
+  <si>
+    <t>21058</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>789</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>BRAND</t>
+  </si>
+  <si>
+    <t>2024-07-30 16:03:24</t>
+  </si>
+  <si>
+    <t>5146</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>2024-07-30 16:01:08</t>
+  </si>
+  <si>
+    <t>27430</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2024-07-30 15:39:29</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>2024-07-30 15:23:20</t>
+  </si>
+  <si>
+    <t>1855</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2024-07-29 06:55:57</t>
-  </si>
-  <si>
-    <t>5.233</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2024-07-27 14:11:32</t>
-  </si>
-  <si>
-    <t>1.152</t>
-  </si>
-  <si>
-    <t>2024-07-27 12:29:58</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>2024-07-27 09:54:47</t>
-  </si>
-  <si>
-    <t>2024-07-27 08:24:59</t>
-  </si>
-  <si>
-    <t>2.972</t>
-  </si>
-  <si>
-    <t>2024-07-27 06:29:16</t>
-  </si>
-  <si>
-    <t>2024-07-27 06:21:04</t>
-  </si>
-  <si>
-    <t>2024-07-27 04:04:05</t>
-  </si>
-  <si>
-    <t>2.381</t>
-  </si>
-  <si>
-    <t>2024-07-27 02:02:08</t>
-  </si>
-  <si>
-    <t>2.422</t>
-  </si>
-  <si>
-    <t>2024-07-27 00:01:53</t>
-  </si>
-  <si>
-    <t>1.793</t>
-  </si>
-  <si>
-    <t>2024-07-26 22:00:28</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2024-07-26 20:02:59</t>
-  </si>
-  <si>
-    <t>2.209</t>
-  </si>
-  <si>
-    <t>2024-07-26 18:45:35</t>
-  </si>
-  <si>
-    <t>933</t>
-  </si>
-  <si>
-    <t>2024-07-26 13:58:56</t>
-  </si>
-  <si>
-    <t>2.722</t>
-  </si>
-  <si>
-    <t>2024-07-26 11:18:22</t>
-  </si>
-  <si>
-    <t>1.702</t>
-  </si>
-  <si>
-    <t>2024-07-26 09:59:18</t>
-  </si>
-  <si>
-    <t>2.867</t>
-  </si>
-  <si>
-    <t>2024-07-26 08:28:49</t>
-  </si>
-  <si>
-    <t>2.436</t>
-  </si>
-  <si>
-    <t>2024-07-26 06:47:41</t>
-  </si>
-  <si>
-    <t>1.561</t>
-  </si>
-  <si>
-    <t>2024-07-26 06:41:56</t>
-  </si>
-  <si>
-    <t>2.816</t>
-  </si>
-  <si>
-    <t>2024-07-26 06:37:18</t>
-  </si>
-  <si>
-    <t>2.361</t>
-  </si>
-  <si>
-    <t>2024-07-26 00:11:43</t>
-  </si>
-  <si>
-    <t>1.948</t>
-  </si>
-  <si>
-    <t>2024-07-25 22:23:55</t>
-  </si>
-  <si>
-    <t>2.535</t>
-  </si>
-  <si>
-    <t>2024-07-25 20:05:49</t>
-  </si>
-  <si>
-    <t>1.4224</t>
-  </si>
-  <si>
-    <t>2024-07-25 18:14:58</t>
-  </si>
-  <si>
-    <t>0.629</t>
-  </si>
-  <si>
-    <t>2024-07-25 15:58:39</t>
-  </si>
-  <si>
-    <t>2.369</t>
-  </si>
-  <si>
-    <t>2024-07-25 15:50:51</t>
-  </si>
-  <si>
-    <t>939</t>
-  </si>
-  <si>
-    <t>2024-07-25 13:58:32</t>
-  </si>
-  <si>
-    <t>2.774</t>
-  </si>
-  <si>
-    <t>2024-07-25 11:13:55</t>
-  </si>
-  <si>
-    <t>1.952</t>
-  </si>
-  <si>
-    <t>2024-07-25 10:57:19</t>
-  </si>
-  <si>
-    <t>2.865</t>
-  </si>
-  <si>
-    <t>2024-07-25 08:28:08</t>
-  </si>
-  <si>
-    <t>3.384</t>
+    <t>2024-07-30 13:57:32</t>
+  </si>
+  <si>
+    <t>6893</t>
+  </si>
+  <si>
+    <t>2024-07-30 13:31:59</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>2024-07-30 11:25:10</t>
+  </si>
+  <si>
+    <t>12396</t>
+  </si>
+  <si>
+    <t>2024-07-30 11:12:18</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>2024-07-30 09:18:36</t>
+  </si>
+  <si>
+    <t>2024-07-30 08:47:16</t>
+  </si>
+  <si>
+    <t>8549</t>
+  </si>
+  <si>
+    <t>2024-07-30 07:54:39</t>
+  </si>
+  <si>
+    <t>17984</t>
+  </si>
+  <si>
+    <t>2024-07-29 16:14:01</t>
+  </si>
+  <si>
+    <t>916</t>
+  </si>
+  <si>
+    <t>2024-07-29 16:13:18</t>
+  </si>
+  <si>
+    <t>26592</t>
+  </si>
+  <si>
+    <t>2024-07-29 15:48:11</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>2024-07-29 15:41:13</t>
+  </si>
+  <si>
+    <t>1863</t>
+  </si>
+  <si>
+    <t>2024-07-29 15:37:34</t>
+  </si>
+  <si>
+    <t>2024-07-29 13:37:12</t>
+  </si>
+  <si>
+    <t>2024-07-29 11:31:09</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>2024-07-29 11:12:20</t>
+  </si>
+  <si>
+    <t>2024-07-29 09:18:48</t>
+  </si>
+  <si>
+    <t>2024-07-29 09:01:39</t>
+  </si>
+  <si>
+    <t>7000</t>
   </si>
 </sst>
 </file>
@@ -584,13 +536,16 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -599,7 +554,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -607,259 +562,259 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
@@ -867,342 +822,162 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
